--- a/assets/excel/exp/pl/11.7.1_PL.xlsx
+++ b/assets/excel/exp/pl/11.7.1_PL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Vmfgus09\os\OS-04\2. ZRÓWNOWAŻONY ROZWÓJ_AGENDA 2030_SDG\4. BIG DATA\4. Platforma dla statystyk eksp\Excele rankingujące\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Vmfgus09\os\OS-04\2. ZRÓWNOWAŻONY ROZWÓJ_AGENDA 2030_SDG\4. BIG DATA\4. Platforma dla statystyk eksp\Zmiany na witrynie eksp\Excele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7725A8-E438-4B97-A4A0-C92F0959B874}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B940DC3A-4709-42FB-98CD-C5992675B315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t xml:space="preserve">Miasto </t>
   </si>
   <si>
-    <t>Powierzchnia miasta  [km2]</t>
-  </si>
-  <si>
     <t>Powierzchnia OPS  [km2]</t>
   </si>
   <si>
@@ -144,19 +141,47 @@
     <t>Udział ogólnodostępnych terenów publicznych w powierzchni całkowitej miast [%]</t>
   </si>
   <si>
-    <t>Przeciętny udział terenów stanowiących przestrzeń publiczną dostępną dla wszystkich  [%]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ludność miasta </t>
   </si>
   <si>
-    <t xml:space="preserve">Ludność z dostępem OPS w odległości do 400m </t>
-  </si>
-  <si>
-    <t>Wskaźnik dostępności przestrzeni publicznych dostępnych dla wszystkich na terenach miast ogółem  [%]</t>
-  </si>
-  <si>
     <t>Wskaźnik 11.7.1 - Przeciętny udział terenów stanowiących przestrzeń publiczną dostępną dla wszystkich w powierzchni miasta ogółem</t>
+  </si>
+  <si>
+    <t>11.7.1 Przeciętny udział terenów stanowiących przestrzeń publiczną dostępną dla wszystkich w powierzchni miasta ogółem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludność z dostępem do otwartych przestrzeni publicznych w odległości do 400m </t>
+  </si>
+  <si>
+    <t>Odsetek mieszkańców miasta z dostępem do przestrzeni publicznych w odległości 400 m [%]</t>
+  </si>
+  <si>
+    <r>
+      <t>Powierzchnia miasta [km</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -166,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +209,15 @@
       <charset val="238"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Fira Sans"/>
@@ -612,14 +646,13 @@
     <col min="7" max="7" width="21" style="3" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="22.5703125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -640,25 +673,25 @@
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>40</v>
